--- a/team/recettes/gâteau au yaourt.xlsx
+++ b/team/recettes/gâteau au yaourt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salma\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salma\IdeaProjects\2022-groupe01\team\recettes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7C9D8DC-346E-4931-95A9-0316E5786007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B672921D-6533-4DB0-81BF-7E9A0886D16F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7C39076B-CF7F-4F37-B81A-A31F244E70FA}"/>
+    <workbookView xWindow="10188" yWindow="3312" windowWidth="13548" windowHeight="8880" xr2:uid="{7C39076B-CF7F-4F37-B81A-A31F244E70FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Nom</t>
   </si>
@@ -94,43 +94,46 @@
     <t>gâteau au yaourt</t>
   </si>
   <si>
-    <t>levure chimique</t>
-  </si>
-  <si>
     <t>1/2paquet</t>
   </si>
   <si>
-    <t>huile de colza</t>
-  </si>
-  <si>
     <t>1/2pot</t>
   </si>
   <si>
-    <t>sucre semoule</t>
-  </si>
-  <si>
     <t>2pots</t>
   </si>
   <si>
     <t>3pots</t>
   </si>
   <si>
-    <t>citron jaune</t>
-  </si>
-  <si>
     <t>1u</t>
   </si>
   <si>
-    <t>yaourt nature</t>
-  </si>
-  <si>
     <t>1pot</t>
   </si>
   <si>
-    <t>œufs</t>
-  </si>
-  <si>
     <t>2u</t>
+  </si>
+  <si>
+    <t>Levure chimique ou Poudre à lever</t>
+  </si>
+  <si>
+    <t>Huile de colza</t>
+  </si>
+  <si>
+    <t>Sucre blanc</t>
+  </si>
+  <si>
+    <t>Farine de blé tendre ou froment T45 (pour pâtisserie)</t>
+  </si>
+  <si>
+    <t>Citron, pulpe, cru</t>
+  </si>
+  <si>
+    <t>Yaourt ou spécialité laitière nature (aliment moyen)</t>
+  </si>
+  <si>
+    <t>Oeuf, cru</t>
   </si>
 </sst>
 </file>
@@ -503,10 +506,13 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="22.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -536,10 +542,10 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
         <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -556,10 +562,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>8</v>
@@ -567,10 +573,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>9</v>
@@ -578,10 +584,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>10</v>
@@ -589,10 +595,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>11</v>
@@ -600,10 +606,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>12</v>
@@ -611,10 +617,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>13</v>
@@ -645,18 +651,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -806,6 +812,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86D65FB8-6FD2-464B-9C66-703B1AB73FDF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40328F81-9448-43C3-B7E1-1133BC16E6B1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -817,14 +831,6 @@
     <ds:schemaRef ds:uri="ea62a05a-5154-454e-812a-649395124f9d"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86D65FB8-6FD2-464B-9C66-703B1AB73FDF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/team/recettes/gâteau au yaourt.xlsx
+++ b/team/recettes/gâteau au yaourt.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salma\IdeaProjects\2022-groupe01\team\recettes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B672921D-6533-4DB0-81BF-7E9A0886D16F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A12C3C-53DB-4FFD-9877-A72875A24E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10188" yWindow="3312" windowWidth="13548" windowHeight="8880" xr2:uid="{7C39076B-CF7F-4F37-B81A-A31F244E70FA}"/>
+    <workbookView xWindow="2472" yWindow="2472" windowWidth="13548" windowHeight="8880" xr2:uid="{7C39076B-CF7F-4F37-B81A-A31F244E70FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Nom</t>
   </si>
@@ -134,6 +135,9 @@
   </si>
   <si>
     <t>Oeuf, cru</t>
+  </si>
+  <si>
+    <t>Quantite</t>
   </si>
 </sst>
 </file>
@@ -503,18 +507,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9688F4A1-622B-45B5-AAD1-0BB6EF2D4F39}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.88671875" customWidth="1"/>
+    <col min="2" max="3" width="22.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -522,128 +526,152 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>0.5</v>
+      </c>
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3">
+        <v>0.5</v>
+      </c>
+      <c r="D3" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>31</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>32</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G9" s="1" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H9" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G10" s="2" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H10" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G11" s="1"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H11" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="https://www.marmiton.org/shopping/envie-d-un-four-encastrable-au-top-voici-les-6-meilleurs-fours-avec-pyrolyse-s4008147.html?utm_source=ustensiles-recettes" xr:uid="{41697393-04FE-4D39-BD60-EC4A9D16066D}"/>
-    <hyperlink ref="G8" r:id="rId2" display="https://www.marmiton.org/shopping/meilleur-moules-a-manque-s4011247.html?utm_source=ustensiles-recettes" xr:uid="{A61E6836-46C7-4571-B9A7-19420FCDAC38}"/>
-    <hyperlink ref="G10" r:id="rId3" display="https://www.marmiton.org/shopping/quel-couteau-pour-quel-aliment-s4003388.html?utm_source=ustensiles-recettes" xr:uid="{CA112427-BEEF-4EB9-BB32-1525D5FBEAAA}"/>
+    <hyperlink ref="H2" r:id="rId1" display="https://www.marmiton.org/shopping/envie-d-un-four-encastrable-au-top-voici-les-6-meilleurs-fours-avec-pyrolyse-s4008147.html?utm_source=ustensiles-recettes" xr:uid="{41697393-04FE-4D39-BD60-EC4A9D16066D}"/>
+    <hyperlink ref="H8" r:id="rId2" display="https://www.marmiton.org/shopping/meilleur-moules-a-manque-s4011247.html?utm_source=ustensiles-recettes" xr:uid="{A61E6836-46C7-4571-B9A7-19420FCDAC38}"/>
+    <hyperlink ref="H10" r:id="rId3" display="https://www.marmiton.org/shopping/quel-couteau-pour-quel-aliment-s4003388.html?utm_source=ustensiles-recettes" xr:uid="{CA112427-BEEF-4EB9-BB32-1525D5FBEAAA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
@@ -651,18 +679,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -812,14 +840,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86D65FB8-6FD2-464B-9C66-703B1AB73FDF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40328F81-9448-43C3-B7E1-1133BC16E6B1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -831,6 +851,14 @@
     <ds:schemaRef ds:uri="ea62a05a-5154-454e-812a-649395124f9d"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86D65FB8-6FD2-464B-9C66-703B1AB73FDF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
